--- a/Income/EXR_inc.xlsx
+++ b/Income/EXR_inc.xlsx
@@ -1780,16 +1780,16 @@
         <v>0.7146</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.7099</v>
+        <v>0.7102</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.7111</v>
+        <v>0.7114</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.7164</v>
+        <v>0.7167</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.7204</v>
+        <v>0.7207</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.7273</v>
@@ -1907,16 +1907,16 @@
         <v>0.4912</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4742</v>
+        <v>0.4744</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4758</v>
+        <v>0.476</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.484</v>
+        <v>0.4842</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4851</v>
+        <v>0.4853</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4898</v>
@@ -2034,16 +2034,16 @@
         <v>0.3918</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.3618</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3568</v>
+        <v>0.357</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3585</v>
+        <v>0.3587</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3533</v>
+        <v>0.3534</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.353</v>
@@ -2161,16 +2161,16 @@
         <v>0.3683</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.3406</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3232</v>
+        <v>0.3234</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3256</v>
+        <v>0.3259</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3207</v>
+        <v>0.321</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.3196</v>
@@ -2288,16 +2288,16 @@
         <v>0.3102</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3446</v>
+        <v>0.3448</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3893</v>
+        <v>0.3894</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.3841</v>
+        <v>0.3843</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2353</v>
+        <v>0.2354</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2052</v>
@@ -3306,16 +3306,16 @@
         <v>0.6636</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.6482</v>
+        <v>0.6484</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.6505</v>
+        <v>0.6508</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.6586</v>
+        <v>0.6589</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.6622</v>
+        <v>0.6625</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.6712</v>
@@ -3433,16 +3433,16 @@
         <v>0.5687</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.5575</v>
+        <v>0.5577</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5522</v>
+        <v>0.5524</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.5471</v>
+        <v>0.5473</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.5406</v>
+        <v>0.5409</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.5416</v>
